--- a/受控文件/组内评分/SRS组内评审.xlsx
+++ b/受控文件/组内评分/SRS组内评审.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\组内评分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187D875-8D6E-422A-9A46-0A7C96DB882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816C4894-80B2-4E13-A92C-8DF352D384FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,16 +560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="94.5546875" customWidth="1"/>
+    <col min="1" max="1" width="94.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -690,7 +690,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -759,7 +759,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -782,7 +782,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -805,7 +805,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -874,7 +874,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -897,7 +897,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -943,7 +943,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1288,19 +1288,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="3">
-        <v>513</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B32:E32" si="0">SUM(B2:B31)</f>
+        <v>105</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM(F2:F31)</f>
+        <v>98</v>
+      </c>
+      <c r="G32" s="3">
+        <f>SUM(G2:G31)</f>
+        <v>102.60000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1325,7 @@
         <v>3.43310344827586</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>0</v>
       </c>
